--- a/biology/Zoologie/Bolitoglossa_pacaya/Bolitoglossa_pacaya.xlsx
+++ b/biology/Zoologie/Bolitoglossa_pacaya/Bolitoglossa_pacaya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa pacaya est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa pacaya est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Guatemala. Elle se rencontre de 1 700 à 2 300 m d'altitude sur le volcan Pacaya dans la Sierra Madre de Chiapas dans les départements d'Escuintla et de Guatemala[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Guatemala. Elle se rencontre de 1 700 à 2 300 m d'altitude sur le volcan Pacaya dans la Sierra Madre de Chiapas dans les départements d'Escuintla et de Guatemala.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 77,9 mm de longueur totale dont 45,3 mm de longueur standard et 32,6 mm pour la queue et les 23 spécimens observés lors de la description originale mesurent en moyenne 65,42 mm dont 26,91 mm pour la queue[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 77,9 mm de longueur totale dont 45,3 mm de longueur standard et 32,6 mm pour la queue et les 23 spécimens observés lors de la description originale mesurent en moyenne 65,42 mm dont 26,91 mm pour la queue.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, le volcan Pacaya[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, le volcan Pacaya.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Campbell, Smith, Streicher, Acevedo &amp; Brodie, 2010 : New salamanders (Caudata: Plethodontidae) from Guatemala, with miscellaneous notes on known species. Miscellaneous Publications Museum of Zoology University of Michigan, no 200, p. 1-66.</t>
         </is>
